--- a/DB Specification/ENCLICK_테이블 명세서_USER.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_USER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enssel\Documents\스터디\테이블 명세서\초기버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nougat\ProjectFile\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8B7719-F359-4DAB-9CEB-6CE40C532CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4718057-DD49-4C55-9D9A-6FD991B8A3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,9 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>PROJECT NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RECOMMEND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,24 +242,6 @@
     <t>END</t>
   </si>
   <si>
-    <t>TEST2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST2_COL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST3_COL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALTER TABLE </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,9 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST_C</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,12 +280,6 @@
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST3_COL2</t>
-  </si>
-  <si>
-    <t>TEST_D</t>
   </si>
   <si>
     <t>REFERENCES</t>
@@ -400,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NICK_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BIRTH_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GENDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT(getdate())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,7 +489,30 @@
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>2023.11.23 / ver1.0</t>
+    <t>BIRTH_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 / ver1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,30 +1256,30 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.35546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.2109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="3.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.35546875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1328,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -1340,19 +1309,19 @@
       <c r="H2" s="46"/>
       <c r="I2" s="47"/>
       <c r="J2" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="43"/>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -1361,13 +1330,13 @@
       <c r="H3" s="46"/>
       <c r="I3" s="47"/>
       <c r="J3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
@@ -1376,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -1385,13 +1354,13 @@
       <c r="H4" s="46"/>
       <c r="I4" s="47"/>
       <c r="J4" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
@@ -1400,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -1411,7 +1380,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
@@ -1420,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -1431,7 +1400,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1439,7 +1408,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1">
@@ -1447,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>10</v>
@@ -1465,16 +1434,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="str">
@@ -1489,7 +1458,7 @@
         <v>USE ENCLICK</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1506,13 +1475,13 @@
         <v>DROP TABLE dbo.USER</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1522,7 +1491,7 @@
         <v>USE ENCLICK</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1537,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -1555,11 +1524,11 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="38" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N15" s="38"/>
     </row>
@@ -1568,10 +1537,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>1</v>
@@ -1584,12 +1553,12 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K16" s="10"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1597,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
@@ -1613,12 +1582,12 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="K17" s="10"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1626,10 +1595,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>1</v>
@@ -1642,12 +1611,12 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K18" s="10"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1655,17 +1624,15 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
@@ -1673,12 +1640,12 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1">
@@ -1686,10 +1653,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
@@ -1702,12 +1669,12 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K20" s="10"/>
       <c r="M20" s="38"/>
       <c r="N20" s="38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1">
@@ -1715,28 +1682,28 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="13" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K21" s="13"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1">
@@ -1744,28 +1711,28 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="13" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="K22" s="13"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1">
@@ -1773,10 +1740,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>1</v>
@@ -1789,7 +1756,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K23" s="10"/>
       <c r="M23" s="38"/>
@@ -1800,10 +1767,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1814,12 +1781,12 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K24" s="10"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1">
@@ -1827,13 +1794,13 @@
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="6" t="s">
@@ -1843,7 +1810,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="21" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K25" s="12"/>
       <c r="M25" s="38"/>
@@ -1854,10 +1821,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1868,12 +1835,12 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K26" s="13"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1">
@@ -1884,13 +1851,13 @@
         <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>7</v>
@@ -1899,12 +1866,12 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="40" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K27" s="12"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1">
@@ -1912,16 +1879,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>7</v>
@@ -1930,7 +1897,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="41" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K28" s="12"/>
       <c r="M28" s="38"/>
@@ -1941,10 +1908,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1953,12 +1920,12 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K29" s="13"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
@@ -1974,15 +1941,15 @@
       <c r="J31" s="4"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1">
       <c r="C32" s="23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2" t="str">
         <f>IF(C33&lt;&gt;"",",","")</f>
@@ -1991,7 +1958,7 @@
       <c r="J32" s="4"/>
       <c r="M32" s="38"/>
       <c r="N32" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1">
@@ -2003,7 +1970,7 @@
       <c r="J33" s="4"/>
       <c r="M33" s="38"/>
       <c r="N33" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="14.25" customHeight="1">
@@ -2018,7 +1985,7 @@
       <c r="J34" s="4"/>
       <c r="M34" s="38"/>
       <c r="N34" s="39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="14.25" customHeight="1">
@@ -2033,17 +2000,17 @@
       <c r="J35" s="4"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="14.25" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J36" s="4"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="14.25" customHeight="1">
@@ -2075,14 +2042,14 @@
     <row r="42" spans="2:14" ht="14.25" customHeight="1">
       <c r="B42" s="2" t="str">
         <f t="shared" ref="B42:B55" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'닉네임' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'USER', @level2type=N'COLUMN',@level2name=N'NICK_NAME' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'닉네임' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'USER', @level2type=N'COLUMN',@level2name=N'NICK_NM' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="2:14" ht="14.25" customHeight="1">
       <c r="B43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'이름' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'USER', @level2type=N'COLUMN',@level2name=N'NAME' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'이름' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'USER', @level2type=N'COLUMN',@level2name=N'NM' </v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -2110,7 +2077,7 @@
     <row r="47" spans="2:14" ht="14.25" customHeight="1">
       <c r="B47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'생일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'USER', @level2type=N'COLUMN',@level2name=N'BIRTH_DATE' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'생일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'USER', @level2type=N'COLUMN',@level2name=N'BIRTH_DT' </v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2182,21 +2149,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.2109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.35546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.2109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
@@ -2207,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2220,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="49" t="str">
         <f>'USER 테이블 명세서'!$C$2</f>
@@ -2228,17 +2195,17 @@
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="20" t="str">
         <f>'USER 테이블 명세서'!$K$2</f>
-        <v>2023.11.23 / ver1.0</v>
+        <v>2023.11.23 / ver1.1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="43"/>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="49" t="str">
         <f>'USER 테이블 명세서'!$C$3</f>
@@ -2246,7 +2213,7 @@
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="20" t="str">
         <f>'USER 테이블 명세서'!$K$3</f>
@@ -2264,7 +2231,7 @@
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="20" t="str">
         <f>'USER 테이블 명세서'!$K$4</f>
@@ -2299,13 +2266,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
@@ -2313,59 +2280,41 @@
         <v>0</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="25">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="25"/>
@@ -2393,31 +2342,31 @@
     </row>
     <row r="17" spans="2:8" ht="12.75" customHeight="1">
       <c r="B17" s="26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C17" s="27" t="str">
         <f>'USER 테이블 명세서'!$C$4</f>
         <v>USER</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E17" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</f>
-        <v>FK_TEST2_TO_USER_1</v>
+        <v>FK__TO_USER_1</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="12.75" customHeight="1">
       <c r="B18" s="29"/>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="23">
         <f>B9</f>
-        <v>TEST_B</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IF(C19&lt;&gt;"",",","")</f>
@@ -2427,28 +2376,28 @@
     </row>
     <row r="19" spans="2:8" ht="12.75" customHeight="1">
       <c r="B19" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:8" ht="12.75" customHeight="1">
       <c r="B20" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="25" t="str">
+        <v>67</v>
+      </c>
+      <c r="C20" s="25">
         <f>C9</f>
-        <v>TEST2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F20" s="30"/>
     </row>
     <row r="21" spans="2:8" ht="12.75" customHeight="1">
       <c r="B21" s="29"/>
-      <c r="C21" s="35" t="str">
+      <c r="C21" s="35">
         <f>D9</f>
-        <v>TEST2_COL</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>IF(C22&lt;&gt;"",",","")</f>
@@ -2458,7 +2407,7 @@
     </row>
     <row r="22" spans="2:8" ht="12.75" customHeight="1">
       <c r="B22" s="31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -2467,31 +2416,31 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C24" s="27" t="str">
         <f>'USER 테이블 명세서'!$C$4</f>
         <v>USER</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E24" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C18&amp;"_TO_"&amp;C24&amp;"_1"</f>
-        <v>FK_TEST_B_TO_USER_1</v>
+        <v>FK_0_TO_USER_1</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="29"/>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="23">
         <f>B10</f>
-        <v>TEST_C</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>IF(C26&lt;&gt;"",",","")</f>
@@ -2501,9 +2450,9 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="29"/>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="23">
         <f>B11</f>
-        <v>TEST_D</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IF(C27&lt;&gt;"",",","")</f>
@@ -2513,28 +2462,28 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="25" t="str">
+        <v>67</v>
+      </c>
+      <c r="C28" s="25">
         <f>C10</f>
-        <v>TEST3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="29"/>
-      <c r="C29" s="35" t="str">
+      <c r="C29" s="35">
         <f>D10</f>
-        <v>TEST3_COL</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>IF(C30&lt;&gt;"",",","")</f>
@@ -2544,9 +2493,9 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="29"/>
-      <c r="C30" s="35" t="str">
+      <c r="C30" s="35">
         <f>D11</f>
-        <v>TEST3_COL2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>IF(C31&lt;&gt;"",",","")</f>
@@ -2556,61 +2505,24 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f>'USER 테이블 명세서'!$C$4</f>
-        <v>USER</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
+    <row r="34" spans="3:5">
       <c r="E34" s="37"/>
-      <c r="F34" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+    </row>
+    <row r="35" spans="3:5">
       <c r="C35" s="23"/>
-      <c r="D35" s="2" t="str">
-        <f>IF(C36&lt;&gt;"",",","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2" t="s">
-        <v>78</v>
-      </c>
+    </row>
+    <row r="37" spans="3:5">
       <c r="C37" s="25"/>
-      <c r="D37" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
+    </row>
+    <row r="38" spans="3:5">
       <c r="C38" s="35"/>
-      <c r="D38" s="2" t="str">
-        <f>IF(C39&lt;&gt;"",",","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
